--- a/Exercise 2 -- Parameter estimation/Model.xlsx
+++ b/Exercise 2 -- Parameter estimation/Model.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="570" windowWidth="19815" windowHeight="5835" activeTab="2"/>
+    <workbookView xWindow="390" yWindow="570" windowWidth="19815" windowHeight="5835" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Submodels" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1576" uniqueCount="1026">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1666" uniqueCount="1087">
   <si>
     <t>ID</t>
   </si>
@@ -3123,6 +3123,189 @@
       </rPr>
       <t>+</t>
     </r>
+  </si>
+  <si>
+    <t>Vmax * min(ATP[c], CTP[c], GTP[c], UTP[c]) / (Km + min(ATP[c], CTP[c], GTP[c], UTP[c])) * RnaPolymerase-Protein[c]</t>
+  </si>
+  <si>
+    <t>Vmax * min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c]) / (Km + min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c])) * Adk-Rna[c] * Ribosome-Protein[c]</t>
+  </si>
+  <si>
+    <t>Vmax * min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c]) / (Km + min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c])) * Apt-Rna[c] * Ribosome-Protein[c]</t>
+  </si>
+  <si>
+    <t>Vmax * min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c]) / (Km + min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c])) * Cmk-Rna[c] * Ribosome-Protein[c]</t>
+  </si>
+  <si>
+    <t>Vmax * min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c]) / (Km + min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c])) * Eno-Rna[c] * Ribosome-Protein[c]</t>
+  </si>
+  <si>
+    <t>Vmax * min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c]) / (Km + min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c])) * Fba-Rna[c] * Ribosome-Protein[c]</t>
+  </si>
+  <si>
+    <t>Vmax * min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c]) / (Km + min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c])) * Gap-Rna[c] * Ribosome-Protein[c]</t>
+  </si>
+  <si>
+    <t>Vmax * min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c]) / (Km + min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c])) * Gk-Rna[c] * Ribosome-Protein[c]</t>
+  </si>
+  <si>
+    <t>Vmax * min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c]) / (Km + min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c])) * Hpt-Rna[c] * Ribosome-Protein[c]</t>
+  </si>
+  <si>
+    <t>Vmax * min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c]) / (Km + min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c])) * LacA-Rna[c] * Ribosome-Protein[c]</t>
+  </si>
+  <si>
+    <t>Vmax * min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c]) / (Km + min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c])) * Ldh-Rna[c] * Ribosome-Protein[c]</t>
+  </si>
+  <si>
+    <t>Vmax * min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c]) / (Km + min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c])) * Nox-Rna[c] * Ribosome-Protein[c]</t>
+  </si>
+  <si>
+    <t>Vmax * min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c]) / (Km + min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c])) * PeptAbcTransporter-Rna[c] * Ribosome-Protein[c]</t>
+  </si>
+  <si>
+    <t>Vmax * min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c]) / (Km + min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c])) * Pfk-Rna[c] * Ribosome-Protein[c]</t>
+  </si>
+  <si>
+    <t>Vmax * min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c]) / (Km + min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c])) * PgiB-Rna[c] * Ribosome-Protein[c]</t>
+  </si>
+  <si>
+    <t>Vmax * min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c]) / (Km + min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c])) * Pgk-Rna[c] * Ribosome-Protein[c]</t>
+  </si>
+  <si>
+    <t>Vmax * min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c]) / (Km + min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c])) * Pgm-Rna[c] * Ribosome-Protein[c]</t>
+  </si>
+  <si>
+    <t>Vmax * min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c]) / (Km + min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c])) * PiAbcTransporter-Rna[c] * Ribosome-Protein[c]</t>
+  </si>
+  <si>
+    <t>Vmax * min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c]) / (Km + min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c])) * Ppa-Rna[c] * Ribosome-Protein[c]</t>
+  </si>
+  <si>
+    <t>Vmax * min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c]) / (Km + min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c])) * Prs-Rna[c] * Ribosome-Protein[c]</t>
+  </si>
+  <si>
+    <t>Vmax * min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c]) / (Km + min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c])) * Pts-Rna[c] * Ribosome-Protein[c]</t>
+  </si>
+  <si>
+    <t>Vmax * min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c]) / (Km + min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c])) * Pyk-Rna[c] * Ribosome-Protein[c]</t>
+  </si>
+  <si>
+    <t>Vmax * min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c]) / (Km + min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c])) * PyrH-Rna[c] * Ribosome-Protein[c]</t>
+  </si>
+  <si>
+    <t>Vmax * min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c]) / (Km + min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c])) * Ribosome-Rna[c] * Ribosome-Protein[c]</t>
+  </si>
+  <si>
+    <t>Vmax * min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c]) / (Km + min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c])) * RnaPolymerase-Rna[c] * Ribosome-Protein[c]</t>
+  </si>
+  <si>
+    <t>Vmax * min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c]) / (Km + min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c])) * Rnase-Rna[c] * Ribosome-Protein[c]</t>
+  </si>
+  <si>
+    <t>Vmax * min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c]) / (Km + min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c])) * Rpe-Rna[c] * Ribosome-Protein[c]</t>
+  </si>
+  <si>
+    <t>Vmax * min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c]) / (Km + min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c])) * Tim-Rna[c] * Ribosome-Protein[c]</t>
+  </si>
+  <si>
+    <t>Vmax * min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c]) / (Km + min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c])) * TklB-Rna[c] * Ribosome-Protein[c]</t>
+  </si>
+  <si>
+    <t>Vmax * min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c]) / (Km + min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c])) * Udk-Rna[c] * Ribosome-Protein[c]</t>
+  </si>
+  <si>
+    <t>Vmax * min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c]) / (Km + min(ALA[c], ARG[c], ASP[c], ASN[c], CYS[c], GLN[c], GLU[c], GLY[c], HIS[c], ILE[c], LEU[c], LYS[c], MET[c], PHE[c], PRO[c], SER[c], THR[c], TRP[c], TYR[c], VAL[c])) * Upp-Rna[c] * Ribosome-Protein[c]</t>
+  </si>
+  <si>
+    <t>Vmax * Adk-Rna[c] / (Adk-Rna[c] + Km) * Rnase-Protein[c]</t>
+  </si>
+  <si>
+    <t>Vmax * Apt-Rna[c] / (Apt-Rna[c] + Km) * Rnase-Protein[c]</t>
+  </si>
+  <si>
+    <t>Vmax * Cmk-Rna[c] / (Cmk-Rna[c] + Km) * Rnase-Protein[c]</t>
+  </si>
+  <si>
+    <t>Vmax * Eno-Rna[c] / (Eno-Rna[c] + Km) * Rnase-Protein[c]</t>
+  </si>
+  <si>
+    <t>Vmax * Fba-Rna[c] / (Fba-Rna[c] + Km) * Rnase-Protein[c]</t>
+  </si>
+  <si>
+    <t>Vmax * Gap-Rna[c] / (Gap-Rna[c] + Km) * Rnase-Protein[c]</t>
+  </si>
+  <si>
+    <t>Vmax * Gk-Rna[c] / (Gk-Rna[c] + Km) * Rnase-Protein[c]</t>
+  </si>
+  <si>
+    <t>Vmax * Hpt-Rna[c] / (Hpt-Rna[c] + Km) * Rnase-Protein[c]</t>
+  </si>
+  <si>
+    <t>Vmax * LacA-Rna[c] / (LacA-Rna[c] + Km) * Rnase-Protein[c]</t>
+  </si>
+  <si>
+    <t>Vmax * Ldh-Rna[c] / (Ldh-Rna[c] + Km) * Rnase-Protein[c]</t>
+  </si>
+  <si>
+    <t>Vmax * Nox-Rna[c] / (Nox-Rna[c] + Km) * Rnase-Protein[c]</t>
+  </si>
+  <si>
+    <t>Vmax * PeptAbcTransporter-Rna[c] / (PeptAbcTransporter-Rna[c] + Km) * Rnase-Protein[c]</t>
+  </si>
+  <si>
+    <t>Vmax * Pfk-Rna[c] / (Pfk-Rna[c] + Km) * Rnase-Protein[c]</t>
+  </si>
+  <si>
+    <t>Vmax * PgiB-Rna[c] / (PgiB-Rna[c] + Km) * Rnase-Protein[c]</t>
+  </si>
+  <si>
+    <t>Vmax * Pgk-Rna[c] / (Pgk-Rna[c] + Km) * Rnase-Protein[c]</t>
+  </si>
+  <si>
+    <t>Vmax * Pgm-Rna[c] / (Pgm-Rna[c] + Km) * Rnase-Protein[c]</t>
+  </si>
+  <si>
+    <t>Vmax * PiAbcTransporter-Rna[c] / (PiAbcTransporter-Rna[c] + Km) * Rnase-Protein[c]</t>
+  </si>
+  <si>
+    <t>Vmax * Ppa-Rna[c] / (Ppa-Rna[c] + Km) * Rnase-Protein[c]</t>
+  </si>
+  <si>
+    <t>Vmax * Prs-Rna[c] / (Prs-Rna[c] + Km) * Rnase-Protein[c]</t>
+  </si>
+  <si>
+    <t>Vmax * Pts-Rna[c] / (Pts-Rna[c] + Km) * Rnase-Protein[c]</t>
+  </si>
+  <si>
+    <t>Vmax * Pyk-Rna[c] / (Pyk-Rna[c] + Km) * Rnase-Protein[c]</t>
+  </si>
+  <si>
+    <t>Vmax * PyrH-Rna[c] / (PyrH-Rna[c] + Km) * Rnase-Protein[c]</t>
+  </si>
+  <si>
+    <t>Vmax * Ribosome-Rna[c] / (Ribosome-Rna[c] + Km) * Rnase-Protein[c]</t>
+  </si>
+  <si>
+    <t>Vmax * RnaPolymerase-Rna[c] / (RnaPolymerase-Rna[c] + Km) * Rnase-Protein[c]</t>
+  </si>
+  <si>
+    <t>Vmax * Rnase-Rna[c] / (Rnase-Rna[c] + Km) * Rnase-Protein[c]</t>
+  </si>
+  <si>
+    <t>Vmax * Rpe-Rna[c] / (Rpe-Rna[c] + Km) * Rnase-Protein[c]</t>
+  </si>
+  <si>
+    <t>Vmax * Tim-Rna[c] / (Tim-Rna[c] + Km) * Rnase-Protein[c]</t>
+  </si>
+  <si>
+    <t>Vmax * TklB-Rna[c] / (TklB-Rna[c] + Km) * Rnase-Protein[c]</t>
+  </si>
+  <si>
+    <t>Vmax * Udk-Rna[c] / (Udk-Rna[c] + Km) * Rnase-Protein[c]</t>
+  </si>
+  <si>
+    <t>Vmax * Upp-Rna[c] / (Upp-Rna[c] + Km) * Rnase-Protein[c]</t>
   </si>
 </sst>
 </file>
@@ -3732,7 +3915,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L146"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B139" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -6657,11 +6840,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K176"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B46" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B160" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C56" sqref="C56"/>
+      <selection pane="bottomRight" activeCell="J173" sqref="J173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8310,6 +8493,9 @@
       <c r="E87" s="3" t="s">
         <v>176</v>
       </c>
+      <c r="F87" s="3" t="s">
+        <v>1026</v>
+      </c>
       <c r="G87" s="7"/>
       <c r="H87" s="7"/>
     </row>
@@ -8329,6 +8515,9 @@
       <c r="E88" s="3" t="s">
         <v>176</v>
       </c>
+      <c r="F88" s="3" t="s">
+        <v>1026</v>
+      </c>
       <c r="G88" s="7"/>
       <c r="H88" s="7"/>
     </row>
@@ -8348,6 +8537,9 @@
       <c r="E89" s="3" t="s">
         <v>176</v>
       </c>
+      <c r="F89" s="3" t="s">
+        <v>1026</v>
+      </c>
       <c r="G89" s="7"/>
       <c r="H89" s="7"/>
     </row>
@@ -8367,6 +8559,9 @@
       <c r="E90" s="3" t="s">
         <v>176</v>
       </c>
+      <c r="F90" s="3" t="s">
+        <v>1026</v>
+      </c>
       <c r="G90" s="7"/>
       <c r="H90" s="7"/>
     </row>
@@ -8386,6 +8581,9 @@
       <c r="E91" s="3" t="s">
         <v>176</v>
       </c>
+      <c r="F91" s="3" t="s">
+        <v>1026</v>
+      </c>
       <c r="G91" s="7"/>
       <c r="H91" s="7"/>
     </row>
@@ -8405,6 +8603,9 @@
       <c r="E92" s="3" t="s">
         <v>176</v>
       </c>
+      <c r="F92" s="3" t="s">
+        <v>1026</v>
+      </c>
       <c r="G92" s="7"/>
       <c r="H92" s="7"/>
     </row>
@@ -8424,6 +8625,9 @@
       <c r="E93" s="3" t="s">
         <v>176</v>
       </c>
+      <c r="F93" s="3" t="s">
+        <v>1026</v>
+      </c>
       <c r="G93" s="7"/>
       <c r="H93" s="7"/>
     </row>
@@ -8443,6 +8647,9 @@
       <c r="E94" s="3" t="s">
         <v>176</v>
       </c>
+      <c r="F94" s="3" t="s">
+        <v>1026</v>
+      </c>
       <c r="G94" s="7"/>
       <c r="H94" s="7"/>
     </row>
@@ -8462,6 +8669,9 @@
       <c r="E95" s="3" t="s">
         <v>176</v>
       </c>
+      <c r="F95" s="3" t="s">
+        <v>1026</v>
+      </c>
       <c r="G95" s="7"/>
       <c r="H95" s="7"/>
     </row>
@@ -8481,6 +8691,9 @@
       <c r="E96" s="3" t="s">
         <v>176</v>
       </c>
+      <c r="F96" s="3" t="s">
+        <v>1026</v>
+      </c>
       <c r="G96" s="7"/>
       <c r="H96" s="7"/>
     </row>
@@ -8500,6 +8713,9 @@
       <c r="E97" s="3" t="s">
         <v>176</v>
       </c>
+      <c r="F97" s="3" t="s">
+        <v>1026</v>
+      </c>
       <c r="G97" s="7"/>
       <c r="H97" s="7"/>
     </row>
@@ -8519,6 +8735,9 @@
       <c r="E98" s="3" t="s">
         <v>176</v>
       </c>
+      <c r="F98" s="3" t="s">
+        <v>1026</v>
+      </c>
       <c r="G98" s="7"/>
       <c r="H98" s="7"/>
     </row>
@@ -8538,6 +8757,9 @@
       <c r="E99" s="3" t="s">
         <v>176</v>
       </c>
+      <c r="F99" s="3" t="s">
+        <v>1026</v>
+      </c>
       <c r="G99" s="7"/>
       <c r="H99" s="7"/>
     </row>
@@ -8557,6 +8779,9 @@
       <c r="E100" s="3" t="s">
         <v>176</v>
       </c>
+      <c r="F100" s="3" t="s">
+        <v>1026</v>
+      </c>
       <c r="G100" s="7"/>
       <c r="H100" s="7"/>
     </row>
@@ -8576,6 +8801,9 @@
       <c r="E101" s="3" t="s">
         <v>176</v>
       </c>
+      <c r="F101" s="3" t="s">
+        <v>1026</v>
+      </c>
       <c r="G101" s="7"/>
       <c r="H101" s="7"/>
     </row>
@@ -8595,6 +8823,9 @@
       <c r="E102" s="3" t="s">
         <v>176</v>
       </c>
+      <c r="F102" s="3" t="s">
+        <v>1026</v>
+      </c>
       <c r="G102" s="7"/>
       <c r="H102" s="7"/>
     </row>
@@ -8614,6 +8845,9 @@
       <c r="E103" s="3" t="s">
         <v>176</v>
       </c>
+      <c r="F103" s="3" t="s">
+        <v>1026</v>
+      </c>
       <c r="G103" s="7"/>
       <c r="H103" s="7"/>
     </row>
@@ -8633,6 +8867,9 @@
       <c r="E104" s="3" t="s">
         <v>176</v>
       </c>
+      <c r="F104" s="3" t="s">
+        <v>1026</v>
+      </c>
       <c r="G104" s="7"/>
       <c r="H104" s="7"/>
     </row>
@@ -8652,6 +8889,9 @@
       <c r="E105" s="3" t="s">
         <v>176</v>
       </c>
+      <c r="F105" s="3" t="s">
+        <v>1026</v>
+      </c>
       <c r="G105" s="7"/>
       <c r="H105" s="7"/>
     </row>
@@ -8671,6 +8911,9 @@
       <c r="E106" s="3" t="s">
         <v>176</v>
       </c>
+      <c r="F106" s="3" t="s">
+        <v>1026</v>
+      </c>
       <c r="G106" s="7"/>
       <c r="H106" s="7"/>
     </row>
@@ -8690,6 +8933,9 @@
       <c r="E107" s="3" t="s">
         <v>176</v>
       </c>
+      <c r="F107" s="3" t="s">
+        <v>1026</v>
+      </c>
       <c r="G107" s="7"/>
       <c r="H107" s="7"/>
     </row>
@@ -8709,6 +8955,9 @@
       <c r="E108" s="3" t="s">
         <v>176</v>
       </c>
+      <c r="F108" s="3" t="s">
+        <v>1026</v>
+      </c>
       <c r="G108" s="7"/>
       <c r="H108" s="7"/>
     </row>
@@ -8728,6 +8977,9 @@
       <c r="E109" s="3" t="s">
         <v>176</v>
       </c>
+      <c r="F109" s="3" t="s">
+        <v>1026</v>
+      </c>
       <c r="G109" s="7"/>
       <c r="H109" s="7"/>
     </row>
@@ -8747,6 +8999,9 @@
       <c r="E110" s="3" t="s">
         <v>176</v>
       </c>
+      <c r="F110" s="3" t="s">
+        <v>1026</v>
+      </c>
       <c r="G110" s="7"/>
       <c r="H110" s="7"/>
     </row>
@@ -8766,6 +9021,9 @@
       <c r="E111" s="3" t="s">
         <v>176</v>
       </c>
+      <c r="F111" s="3" t="s">
+        <v>1026</v>
+      </c>
       <c r="G111" s="7"/>
       <c r="H111" s="7"/>
     </row>
@@ -8785,6 +9043,9 @@
       <c r="E112" s="3" t="s">
         <v>176</v>
       </c>
+      <c r="F112" s="3" t="s">
+        <v>1026</v>
+      </c>
       <c r="G112" s="7"/>
       <c r="H112" s="7"/>
     </row>
@@ -8804,6 +9065,9 @@
       <c r="E113" s="3" t="s">
         <v>176</v>
       </c>
+      <c r="F113" s="3" t="s">
+        <v>1026</v>
+      </c>
       <c r="G113" s="7"/>
       <c r="H113" s="7"/>
     </row>
@@ -8823,6 +9087,9 @@
       <c r="E114" s="3" t="s">
         <v>176</v>
       </c>
+      <c r="F114" s="3" t="s">
+        <v>1026</v>
+      </c>
       <c r="G114" s="7"/>
       <c r="H114" s="7"/>
     </row>
@@ -8842,6 +9109,9 @@
       <c r="E115" s="3" t="s">
         <v>176</v>
       </c>
+      <c r="F115" s="3" t="s">
+        <v>1026</v>
+      </c>
       <c r="G115" s="7"/>
       <c r="H115" s="7"/>
     </row>
@@ -8861,6 +9131,9 @@
       <c r="E116" s="3" t="s">
         <v>176</v>
       </c>
+      <c r="F116" s="3" t="s">
+        <v>1026</v>
+      </c>
       <c r="G116" s="7"/>
       <c r="H116" s="7"/>
     </row>
@@ -8880,6 +9153,9 @@
       <c r="E117" s="3" t="s">
         <v>180</v>
       </c>
+      <c r="F117" s="3" t="s">
+        <v>1027</v>
+      </c>
       <c r="G117" s="7"/>
       <c r="H117" s="7"/>
     </row>
@@ -8899,6 +9175,9 @@
       <c r="E118" s="3" t="s">
         <v>180</v>
       </c>
+      <c r="F118" s="3" t="s">
+        <v>1028</v>
+      </c>
       <c r="G118" s="7"/>
       <c r="H118" s="7"/>
     </row>
@@ -8918,6 +9197,9 @@
       <c r="E119" s="3" t="s">
         <v>180</v>
       </c>
+      <c r="F119" s="3" t="s">
+        <v>1029</v>
+      </c>
       <c r="G119" s="7"/>
       <c r="H119" s="7"/>
     </row>
@@ -8937,6 +9219,9 @@
       <c r="E120" s="3" t="s">
         <v>180</v>
       </c>
+      <c r="F120" s="3" t="s">
+        <v>1030</v>
+      </c>
       <c r="G120" s="7"/>
       <c r="H120" s="7"/>
     </row>
@@ -8956,6 +9241,9 @@
       <c r="E121" s="3" t="s">
         <v>180</v>
       </c>
+      <c r="F121" s="3" t="s">
+        <v>1031</v>
+      </c>
       <c r="G121" s="7"/>
       <c r="H121" s="7"/>
     </row>
@@ -8975,6 +9263,9 @@
       <c r="E122" s="3" t="s">
         <v>180</v>
       </c>
+      <c r="F122" s="3" t="s">
+        <v>1032</v>
+      </c>
       <c r="G122" s="7"/>
       <c r="H122" s="7"/>
     </row>
@@ -8994,6 +9285,9 @@
       <c r="E123" s="3" t="s">
         <v>180</v>
       </c>
+      <c r="F123" s="3" t="s">
+        <v>1033</v>
+      </c>
       <c r="G123" s="7"/>
       <c r="H123" s="7"/>
     </row>
@@ -9013,6 +9307,9 @@
       <c r="E124" s="3" t="s">
         <v>180</v>
       </c>
+      <c r="F124" s="3" t="s">
+        <v>1034</v>
+      </c>
       <c r="G124" s="7"/>
       <c r="H124" s="7"/>
     </row>
@@ -9032,6 +9329,9 @@
       <c r="E125" s="3" t="s">
         <v>180</v>
       </c>
+      <c r="F125" s="3" t="s">
+        <v>1035</v>
+      </c>
       <c r="G125" s="7"/>
       <c r="H125" s="7"/>
     </row>
@@ -9051,6 +9351,9 @@
       <c r="E126" s="3" t="s">
         <v>180</v>
       </c>
+      <c r="F126" s="3" t="s">
+        <v>1036</v>
+      </c>
       <c r="G126" s="7"/>
       <c r="H126" s="7"/>
     </row>
@@ -9070,6 +9373,9 @@
       <c r="E127" s="3" t="s">
         <v>180</v>
       </c>
+      <c r="F127" s="3" t="s">
+        <v>1037</v>
+      </c>
       <c r="G127" s="7"/>
       <c r="H127" s="7"/>
     </row>
@@ -9089,6 +9395,9 @@
       <c r="E128" s="3" t="s">
         <v>180</v>
       </c>
+      <c r="F128" s="3" t="s">
+        <v>1038</v>
+      </c>
       <c r="G128" s="7"/>
       <c r="H128" s="7"/>
     </row>
@@ -9108,6 +9417,9 @@
       <c r="E129" s="3" t="s">
         <v>180</v>
       </c>
+      <c r="F129" s="3" t="s">
+        <v>1039</v>
+      </c>
       <c r="G129" s="7"/>
       <c r="H129" s="7"/>
     </row>
@@ -9127,6 +9439,9 @@
       <c r="E130" s="3" t="s">
         <v>180</v>
       </c>
+      <c r="F130" s="3" t="s">
+        <v>1040</v>
+      </c>
       <c r="G130" s="7"/>
       <c r="H130" s="7"/>
     </row>
@@ -9146,6 +9461,9 @@
       <c r="E131" s="3" t="s">
         <v>180</v>
       </c>
+      <c r="F131" s="3" t="s">
+        <v>1041</v>
+      </c>
       <c r="G131" s="7"/>
       <c r="H131" s="7"/>
     </row>
@@ -9165,6 +9483,9 @@
       <c r="E132" s="3" t="s">
         <v>180</v>
       </c>
+      <c r="F132" s="3" t="s">
+        <v>1042</v>
+      </c>
       <c r="G132" s="7"/>
       <c r="H132" s="7"/>
     </row>
@@ -9184,6 +9505,9 @@
       <c r="E133" s="3" t="s">
         <v>180</v>
       </c>
+      <c r="F133" s="3" t="s">
+        <v>1043</v>
+      </c>
       <c r="G133" s="7"/>
       <c r="H133" s="7"/>
     </row>
@@ -9203,6 +9527,9 @@
       <c r="E134" s="3" t="s">
         <v>180</v>
       </c>
+      <c r="F134" s="3" t="s">
+        <v>1044</v>
+      </c>
       <c r="G134" s="7"/>
       <c r="H134" s="7"/>
     </row>
@@ -9222,6 +9549,9 @@
       <c r="E135" s="3" t="s">
         <v>180</v>
       </c>
+      <c r="F135" s="3" t="s">
+        <v>1045</v>
+      </c>
       <c r="G135" s="7"/>
       <c r="H135" s="7"/>
     </row>
@@ -9241,6 +9571,9 @@
       <c r="E136" s="3" t="s">
         <v>180</v>
       </c>
+      <c r="F136" s="3" t="s">
+        <v>1046</v>
+      </c>
       <c r="G136" s="7"/>
       <c r="H136" s="7"/>
     </row>
@@ -9260,6 +9593,9 @@
       <c r="E137" s="3" t="s">
         <v>180</v>
       </c>
+      <c r="F137" s="3" t="s">
+        <v>1047</v>
+      </c>
       <c r="G137" s="7"/>
       <c r="H137" s="7"/>
     </row>
@@ -9279,6 +9615,9 @@
       <c r="E138" s="3" t="s">
         <v>180</v>
       </c>
+      <c r="F138" s="3" t="s">
+        <v>1048</v>
+      </c>
       <c r="G138" s="7"/>
       <c r="H138" s="7"/>
     </row>
@@ -9298,6 +9637,9 @@
       <c r="E139" s="3" t="s">
         <v>180</v>
       </c>
+      <c r="F139" s="3" t="s">
+        <v>1049</v>
+      </c>
       <c r="G139" s="7"/>
       <c r="H139" s="7"/>
     </row>
@@ -9317,6 +9659,9 @@
       <c r="E140" s="3" t="s">
         <v>180</v>
       </c>
+      <c r="F140" s="3" t="s">
+        <v>1050</v>
+      </c>
       <c r="G140" s="7"/>
       <c r="H140" s="7"/>
     </row>
@@ -9336,6 +9681,9 @@
       <c r="E141" s="3" t="s">
         <v>180</v>
       </c>
+      <c r="F141" s="3" t="s">
+        <v>1051</v>
+      </c>
       <c r="G141" s="7"/>
       <c r="H141" s="7"/>
     </row>
@@ -9355,6 +9703,9 @@
       <c r="E142" s="3" t="s">
         <v>180</v>
       </c>
+      <c r="F142" s="3" t="s">
+        <v>1052</v>
+      </c>
       <c r="G142" s="7"/>
       <c r="H142" s="7"/>
     </row>
@@ -9374,6 +9725,9 @@
       <c r="E143" s="3" t="s">
         <v>180</v>
       </c>
+      <c r="F143" s="3" t="s">
+        <v>1053</v>
+      </c>
       <c r="G143" s="7"/>
       <c r="H143" s="7"/>
     </row>
@@ -9393,6 +9747,9 @@
       <c r="E144" s="3" t="s">
         <v>180</v>
       </c>
+      <c r="F144" s="3" t="s">
+        <v>1054</v>
+      </c>
       <c r="G144" s="7"/>
       <c r="H144" s="7"/>
     </row>
@@ -9412,6 +9769,9 @@
       <c r="E145" s="3" t="s">
         <v>180</v>
       </c>
+      <c r="F145" s="3" t="s">
+        <v>1055</v>
+      </c>
       <c r="G145" s="7"/>
       <c r="H145" s="7"/>
     </row>
@@ -9431,6 +9791,9 @@
       <c r="E146" s="3" t="s">
         <v>180</v>
       </c>
+      <c r="F146" s="3" t="s">
+        <v>1056</v>
+      </c>
       <c r="G146" s="7"/>
       <c r="H146" s="7"/>
     </row>
@@ -9450,6 +9813,9 @@
       <c r="E147" s="3" t="s">
         <v>183</v>
       </c>
+      <c r="F147" s="3" t="s">
+        <v>1057</v>
+      </c>
       <c r="G147" s="7"/>
       <c r="H147" s="7"/>
     </row>
@@ -9469,6 +9835,9 @@
       <c r="E148" s="3" t="s">
         <v>183</v>
       </c>
+      <c r="F148" s="3" t="s">
+        <v>1058</v>
+      </c>
       <c r="G148" s="7"/>
       <c r="H148" s="7"/>
     </row>
@@ -9488,6 +9857,9 @@
       <c r="E149" s="3" t="s">
         <v>183</v>
       </c>
+      <c r="F149" s="3" t="s">
+        <v>1059</v>
+      </c>
       <c r="G149" s="7"/>
       <c r="H149" s="7"/>
     </row>
@@ -9507,6 +9879,9 @@
       <c r="E150" s="3" t="s">
         <v>183</v>
       </c>
+      <c r="F150" s="3" t="s">
+        <v>1060</v>
+      </c>
       <c r="G150" s="7"/>
       <c r="H150" s="7"/>
     </row>
@@ -9526,6 +9901,9 @@
       <c r="E151" s="3" t="s">
         <v>183</v>
       </c>
+      <c r="F151" s="3" t="s">
+        <v>1061</v>
+      </c>
       <c r="G151" s="7"/>
       <c r="H151" s="7"/>
     </row>
@@ -9545,6 +9923,9 @@
       <c r="E152" s="3" t="s">
         <v>183</v>
       </c>
+      <c r="F152" s="3" t="s">
+        <v>1062</v>
+      </c>
       <c r="G152" s="7"/>
       <c r="H152" s="7"/>
     </row>
@@ -9564,6 +9945,9 @@
       <c r="E153" s="3" t="s">
         <v>183</v>
       </c>
+      <c r="F153" s="3" t="s">
+        <v>1063</v>
+      </c>
       <c r="G153" s="7"/>
       <c r="H153" s="7"/>
     </row>
@@ -9583,6 +9967,9 @@
       <c r="E154" s="3" t="s">
         <v>183</v>
       </c>
+      <c r="F154" s="3" t="s">
+        <v>1064</v>
+      </c>
       <c r="G154" s="7"/>
       <c r="H154" s="7"/>
     </row>
@@ -9602,6 +9989,9 @@
       <c r="E155" s="3" t="s">
         <v>183</v>
       </c>
+      <c r="F155" s="3" t="s">
+        <v>1065</v>
+      </c>
       <c r="G155" s="7"/>
       <c r="H155" s="7"/>
     </row>
@@ -9621,6 +10011,9 @@
       <c r="E156" s="3" t="s">
         <v>183</v>
       </c>
+      <c r="F156" s="3" t="s">
+        <v>1066</v>
+      </c>
       <c r="G156" s="7"/>
       <c r="H156" s="7"/>
     </row>
@@ -9640,6 +10033,9 @@
       <c r="E157" s="3" t="s">
         <v>183</v>
       </c>
+      <c r="F157" s="3" t="s">
+        <v>1067</v>
+      </c>
       <c r="G157" s="7"/>
       <c r="H157" s="7"/>
     </row>
@@ -9659,6 +10055,9 @@
       <c r="E158" s="3" t="s">
         <v>183</v>
       </c>
+      <c r="F158" s="3" t="s">
+        <v>1068</v>
+      </c>
       <c r="G158" s="7"/>
       <c r="H158" s="7"/>
     </row>
@@ -9678,6 +10077,9 @@
       <c r="E159" s="3" t="s">
         <v>183</v>
       </c>
+      <c r="F159" s="3" t="s">
+        <v>1069</v>
+      </c>
       <c r="G159" s="7"/>
       <c r="H159" s="7"/>
     </row>
@@ -9697,6 +10099,9 @@
       <c r="E160" s="3" t="s">
         <v>183</v>
       </c>
+      <c r="F160" s="3" t="s">
+        <v>1070</v>
+      </c>
       <c r="G160" s="7"/>
       <c r="H160" s="7"/>
     </row>
@@ -9716,6 +10121,9 @@
       <c r="E161" s="3" t="s">
         <v>183</v>
       </c>
+      <c r="F161" s="3" t="s">
+        <v>1071</v>
+      </c>
       <c r="G161" s="7"/>
       <c r="H161" s="7"/>
     </row>
@@ -9735,6 +10143,9 @@
       <c r="E162" s="3" t="s">
         <v>183</v>
       </c>
+      <c r="F162" s="3" t="s">
+        <v>1072</v>
+      </c>
       <c r="G162" s="7"/>
       <c r="H162" s="7"/>
     </row>
@@ -9754,6 +10165,9 @@
       <c r="E163" s="3" t="s">
         <v>183</v>
       </c>
+      <c r="F163" s="3" t="s">
+        <v>1073</v>
+      </c>
       <c r="G163" s="7"/>
       <c r="H163" s="7"/>
     </row>
@@ -9773,6 +10187,9 @@
       <c r="E164" s="3" t="s">
         <v>183</v>
       </c>
+      <c r="F164" s="3" t="s">
+        <v>1074</v>
+      </c>
       <c r="G164" s="7"/>
       <c r="H164" s="7"/>
     </row>
@@ -9792,6 +10209,9 @@
       <c r="E165" s="3" t="s">
         <v>183</v>
       </c>
+      <c r="F165" s="3" t="s">
+        <v>1075</v>
+      </c>
       <c r="G165" s="7"/>
       <c r="H165" s="7"/>
     </row>
@@ -9811,6 +10231,9 @@
       <c r="E166" s="3" t="s">
         <v>183</v>
       </c>
+      <c r="F166" s="3" t="s">
+        <v>1076</v>
+      </c>
       <c r="G166" s="7"/>
       <c r="H166" s="7"/>
     </row>
@@ -9830,6 +10253,9 @@
       <c r="E167" s="3" t="s">
         <v>183</v>
       </c>
+      <c r="F167" s="3" t="s">
+        <v>1077</v>
+      </c>
       <c r="G167" s="7"/>
       <c r="H167" s="7"/>
     </row>
@@ -9849,6 +10275,9 @@
       <c r="E168" s="3" t="s">
         <v>183</v>
       </c>
+      <c r="F168" s="3" t="s">
+        <v>1078</v>
+      </c>
       <c r="G168" s="7"/>
       <c r="H168" s="7"/>
     </row>
@@ -9868,6 +10297,9 @@
       <c r="E169" s="3" t="s">
         <v>183</v>
       </c>
+      <c r="F169" s="3" t="s">
+        <v>1079</v>
+      </c>
       <c r="G169" s="7"/>
       <c r="H169" s="7"/>
     </row>
@@ -9887,6 +10319,9 @@
       <c r="E170" s="3" t="s">
         <v>183</v>
       </c>
+      <c r="F170" s="3" t="s">
+        <v>1080</v>
+      </c>
       <c r="G170" s="7"/>
       <c r="H170" s="7"/>
     </row>
@@ -9906,6 +10341,9 @@
       <c r="E171" s="3" t="s">
         <v>183</v>
       </c>
+      <c r="F171" s="3" t="s">
+        <v>1081</v>
+      </c>
       <c r="G171" s="7"/>
       <c r="H171" s="7"/>
     </row>
@@ -9925,6 +10363,9 @@
       <c r="E172" s="3" t="s">
         <v>183</v>
       </c>
+      <c r="F172" s="3" t="s">
+        <v>1082</v>
+      </c>
       <c r="G172" s="7"/>
       <c r="H172" s="7"/>
     </row>
@@ -9944,6 +10385,9 @@
       <c r="E173" s="3" t="s">
         <v>183</v>
       </c>
+      <c r="F173" s="3" t="s">
+        <v>1083</v>
+      </c>
       <c r="G173" s="7"/>
       <c r="H173" s="7"/>
     </row>
@@ -9963,6 +10407,9 @@
       <c r="E174" s="3" t="s">
         <v>183</v>
       </c>
+      <c r="F174" s="3" t="s">
+        <v>1084</v>
+      </c>
       <c r="G174" s="7"/>
       <c r="H174" s="7"/>
     </row>
@@ -9982,6 +10429,9 @@
       <c r="E175" s="3" t="s">
         <v>183</v>
       </c>
+      <c r="F175" s="3" t="s">
+        <v>1085</v>
+      </c>
       <c r="G175" s="7"/>
       <c r="H175" s="7"/>
     </row>
@@ -10000,6 +10450,9 @@
       </c>
       <c r="E176" s="3" t="s">
         <v>183</v>
+      </c>
+      <c r="F176" s="3" t="s">
+        <v>1086</v>
       </c>
       <c r="G176" s="7"/>
       <c r="H176" s="7"/>
